--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1653,6 +1653,98 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45204.6875</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Jamshedpur</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>05/10/2023 16:21</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>05/10/2023 16:24</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>05/10/2023 16:24</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/jamshedpur-hyderabad/Ek7tCg24/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1745,6 +1745,98 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45205.6875</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>North East Utd</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:57</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>06/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:57</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>06/10/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:57</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>06/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/minerva-punjab-north-east-united/dEdoBDHA/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1837,6 +1837,98 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Odisha FC</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>02/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>02/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>02/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/fc-goa-odisha-fc/z5ekAXWG/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1929,6 +1929,98 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45206.6875</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Chennaiyin</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Mohun Bagan</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/chennaiyin-fc-mohun-bagan/4v0g9inN/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2021,6 +2021,98 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45207.6875</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mumbai City</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Kerala Blasters</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:21</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:21</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:21</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/mumbai-city-kerala-blasters/rVbc8B1T/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2113,6 +2113,98 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>East Bengal</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/east-bengal-fc-goa/lCyQ3V9p/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2205,6 +2205,98 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45220.6875</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Kerala Blasters</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>North East Utd</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:44</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/kerala-blasters-north-east-united/ncfT2kPj/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,6 +2297,190 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45221.6875</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Jamshedpur</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>22/10/2023 07:02</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:22</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>22/10/2023 07:02</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:22</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>22/10/2023 07:02</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:22</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/jamshedpur-minerva-punjab/00rBRY1i/</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45222.6875</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Chennaiyin</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>16/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>23/10/2023 16:25</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>16/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>23/10/2023 16:25</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>16/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>23/10/2023 16:25</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/hyderabad-chennaiyin-fc/visFQhHc/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2481,6 +2481,98 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45224.6875</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Bengaluru FC</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>25/10/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>25/10/2023 16:26</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>25/10/2023 16:28</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/bengaluru-fc-fc-goa/dSyKPCW3/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2573,6 +2573,98 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45225.6875</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>North East Utd</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Jamshedpur</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>26/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>26/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>26/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/north-east-united-jamshedpur/zJzOOWoA/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2665,6 +2665,282 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45226.6875</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kerala Blasters</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Odisha FC</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/kerala-blasters-odisha-fc/UuzSNj1G/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45227.6875</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Mumbai City</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:33</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:33</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:33</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:33</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:33</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:33</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/mumbai-city-hyderabad/rqvWMAGM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45228.64583333334</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Chennaiyin</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:13</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:09</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:13</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:09</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:13</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:09</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/chennaiyin-fc-minerva-punjab/SGF2Hlvp/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2941,6 +2941,98 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45230.64583333334</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Odisha FC</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Bengaluru FC</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>31/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>31/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>31/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/odisha-fc-bengaluru-fc/zsF6G8gj/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3033,6 +3033,98 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45231.64583333334</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Jamshedpur</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Mohun Bagan</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>31/10/2023 15:30</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>01/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>31/10/2023 15:30</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>01/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>31/10/2023 15:30</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>01/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/jamshedpur-mohun-bagan/EXDAFS8d/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3125,6 +3125,98 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45232.64583333334</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mumbai City</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>01/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>02/11/2023 15:02</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>01/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>02/11/2023 15:02</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>01/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>02/11/2023 15:02</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/mumbai-city-minerva-punjab/GxhgvCoc/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3217,6 +3217,98 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45233.64583333334</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Odisha FC</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>North East Utd</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>31/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>31/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>31/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/odisha-fc-north-east-united/UudcwW03/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3309,6 +3309,190 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Bengaluru FC</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>31/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:15</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>31/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:15</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>31/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:15</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/hyderabad-bengaluru-fc/O2e1xjG9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45234.64583333334</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>East Bengal</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Kerala Blasters</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:27</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/east-bengal-kerala-blasters/2gf5yAVF/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3493,6 +3493,98 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45235.64583333334</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Chennaiyin</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/chennaiyin-fc-fc-goa/KUlAzUpM/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3585,6 +3585,98 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45237.64583333334</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>06/11/2023 15:18</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>07/11/2023 15:22</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>06/11/2023 15:18</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>07/11/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>06/11/2023 15:18</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>07/11/2023 15:22</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/minerva-punjab-hyderabad/bLmEZm0S/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3677,6 +3677,282 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45255.54166666666</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Chennaiyin</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>East Bengal</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:13</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:13</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:13</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/chennaiyin-fc-east-bengal/G0ztV78q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45255.64583333334</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kerala Blasters</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:25</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:25</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/kerala-blasters-hyderabad/SzvpURNk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45256.64583333334</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>North East Utd</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Bengaluru FC</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>19/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:26</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>19/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>19/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:26</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/north-east-united-bengaluru-fc/AaTlTowd/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3953,6 +3953,98 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45257.64583333334</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Jamshedpur</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>20/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>27/11/2023 15:26</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>20/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>27/11/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>20/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>27/11/2023 15:26</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/fc-goa-jamshedpur/ljShS5h2/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4045,6 +4045,98 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45259.64583333334</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Kerala Blasters</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Chennaiyin</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>3</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>29/11/2023 15:22</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>29/11/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>29/11/2023 15:22</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/kerala-blasters-chennaiyin-fc/x6LzikV2/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4137,6 +4137,98 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45260.64583333334</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Bengaluru FC</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>3</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>28/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>30/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>28/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>30/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>28/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>30/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/bengaluru-fc-minerva-punjab/GdKvj9p9/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4229,6 +4229,98 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45261.64583333334</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Jamshedpur</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Odisha FC</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>27/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>01/12/2023 15:22</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>27/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>01/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>27/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>01/12/2023 15:22</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/jamshedpur-odisha-fc/bL9qkTaF/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4321,6 +4321,98 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45262.64583333334</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Mohun Bagan</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:21</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:21</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:21</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/hyderabad-mohun-bagan/CODmlmFL/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4413,6 +4413,1386 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45263.64583333334</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Kerala Blasters</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>29/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:41</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>29/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>29/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:40</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/fc-goa-kerala-blasters/6oDim7UR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45264.64583333334</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>East Bengal</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>5</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>North East Utd</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>27/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>04/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>27/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>04/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>27/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>04/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/east-bengal-north-east-united/8faJrRxq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45266.64583333334</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Mohun Bagan</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Odisha FC</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>05/12/2023 01:41</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>06/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>05/12/2023 01:41</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>06/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>05/12/2023 01:41</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>06/12/2023 15:25</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/mohun-bagan-odisha-fc/zHVFsohk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45267.64583333334</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Jamshedpur</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Chennaiyin</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>01/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>07/12/2023 15:20</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>01/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>07/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>01/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>07/12/2023 15:20</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/jamshedpur-chennaiyin-fc/E7UJt57e/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45268.64583333334</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Bengaluru FC</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Mumbai City</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>01/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>01/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>01/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/bengaluru-fc-mumbai-city/8UTNuPM1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45269.64583333334</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>East Bengal</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>08/12/2023 14:05</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:17</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>08/12/2023 14:05</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:17</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>08/12/2023 14:05</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:17</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/east-bengal-minerva-punjab/MXXRvqx8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45270.64583333334</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>North East Utd</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>04/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:22</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>04/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>04/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:22</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/north-east-united-hyderabad/Q5b8myt8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45272.64583333334</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Mumbai City</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:43</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>12/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:43</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>12/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:43</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>12/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/fc-goa-mumbai-city/4dcCneeE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45273.64583333334</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Chennaiyin</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Bengaluru FC</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:43</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>13/12/2023 15:21</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:43</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>13/12/2023 15:20</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:43</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>13/12/2023 15:21</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/chennaiyin-fc-bengaluru-fc/W4QuVSPt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45274.64583333334</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Kerala Blasters</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>13/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>14/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>13/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>14/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>13/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>14/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/minerva-punjab-kerala-blasters/AePqUnum/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45275.64583333334</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>North East Utd</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Mohun Bagan</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>13/12/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>15/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>13/12/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>15/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>13/12/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>15/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/north-east-united-mohun-bagan/hKElT6fg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45276.54166666666</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Bengaluru FC</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Jamshedpur</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>13/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:50</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>13/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:50</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>13/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:50</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/bengaluru-fc-jamshedpur/4fIhSQ9a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45276.64583333334</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Mumbai City</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>East Bengal</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>12/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>12/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>12/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/mumbai-city-east-bengal/bHHdRpP5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45277.64583333334</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Odisha FC</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/odisha-fc-hyderabad/x8G0Q4vC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45278.64583333334</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Chennaiyin</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>18/12/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>18/12/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>18/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/minerva-punjab-chennaiyin-fc/fqB5POgI/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5793,6 +5793,98 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45280.64583333334</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Mumbai City</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Mohun Bagan</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>19/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>20/12/2023 15:20</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>19/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>20/12/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>19/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>20/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/mumbai-city-mohun-bagan/YZ99Or9O/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5885,6 +5885,98 @@
         </is>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45281.64583333334</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Jamshedpur</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>21/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>21/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>21/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/hyderabad-jamshedpur/nwbimSoP/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5977,6 +5977,98 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45282.64583333334</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>East Bengal</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Odisha FC</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>22/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>22/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>22/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/east-bengal-odisha-fc/ObkJrnft/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/india_isl_2023-2024.xlsx
+++ b/2023/india_isl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6069,6 +6069,742 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45283.64583333334</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Mohun Bagan</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>4</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>22/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:09</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>22/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>23/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>22/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>23/12/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/mohun-bagan-fc-goa/6NvOs69n/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45284.54166666666</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Bengaluru FC</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>North East Utd</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:26</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:26</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:26</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/bengaluru-fc-north-east-united/pEwStQOh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45284.64583333334</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kerala Blasters</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Mumbai City</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>20/12/2023 15:43</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>24/12/2023 15:24</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>20/12/2023 15:43</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>24/12/2023 15:23</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>20/12/2023 15:43</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>24/12/2023 15:24</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/kerala-blasters-mumbai-city/hvwWupva/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45286.64583333334</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Odisha FC</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:24</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:24</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:24</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/minerva-punjab-odisha-fc/WUyzu4g5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45287.64583333334</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Mohun Bagan</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Kerala Blasters</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>26/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>27/12/2023 14:50</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>26/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>27/12/2023 14:50</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>26/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>27/12/2023 14:50</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/mohun-bagan-kerala-blasters/EgRvvO8B/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45288.64583333334</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Mumbai City</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Chennaiyin</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>24/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>28/12/2023 14:49</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>24/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>28/12/2023 14:49</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>24/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>28/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/mumbai-city-chennaiyin-fc/SdVrwrOH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45289.54166666666</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Odisha FC</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>4</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Jamshedpur</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>29/12/2023 13:00</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>29/12/2023 13:00</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>29/12/2023 13:00</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/odisha-fc-jamshedpur/MJUnx2wO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>isl</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45289.64583333334</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>North East Utd</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>24/12/2023 13:11</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>29/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>24/12/2023 13:11</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>29/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>24/12/2023 13:11</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>29/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/india/isl/north-east-united-fc-goa/0ATjyMhU/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
